--- a/指标分析维度.xlsx
+++ b/指标分析维度.xlsx
@@ -98,7 +98,7 @@
     <t>提及关联强度（各类型占比）</t>
   </si>
   <si>
-    <t>按品牌与核心词的关联紧密性分类（强 / 中 / 弱），强关联 = 直接绑定核心词 + 具体属性，弱关联 = 泛化提及无核心属性，统计各类型占比</t>
+    <t>按目标关键词与问题关键词的关联紧密性分类（强 / 中 / 弱），强关联 = 直接绑定核心词 + 具体属性，弱关联 = 泛化提及无核心属性，统计各类型占比</t>
   </si>
   <si>
     <t>避免 “泛提及” 导致的曝光价值虚高，判断大模型是否将品牌与核心词深度绑定，指导核心卖点强化方向</t>
@@ -1460,8 +1460,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1542,7 +1542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="353" spans="1:6">
+    <row r="5" ht="387" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
         <v>22</v>

--- a/指标分析维度.xlsx
+++ b/指标分析维度.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>维度分类</t>
   </si>
@@ -35,6 +35,9 @@
     <t>指标名称</t>
   </si>
   <si>
+    <t>V2.1</t>
+  </si>
+  <si>
     <t>统计逻辑</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t>品牌提及率</t>
   </si>
   <si>
+    <t>全局</t>
+  </si>
+  <si>
     <t>筛选有效回复（排除抓取失败、答非所问），统计明确 / 隐含提及目标品牌的回复占比，隐含提及需人工标注验证</t>
   </si>
   <si>
@@ -62,7 +68,7 @@
     <t>品牌提及率 =（提及目标品牌的有效回复数 ÷ 总有效回复数）× 100%</t>
   </si>
   <si>
-    <t>核心词 “无糖可乐”，目标品牌 “百事可乐”，有效回复 18 个，14 个提及百事可乐，提及率 = 14÷18×100%≈77.8%</t>
+    <t>核心词 “无糖可乐”，目标品牌 “百事可乐”，有效回复 18 个，14 个提及百事可乐，品牌提及率 = 14÷18×100%≈77.8%</t>
   </si>
   <si>
     <t>首位提及占比</t>
@@ -111,6 +117,21 @@
   </si>
   <si>
     <t>内容解析维度</t>
+  </si>
+  <si>
+    <t>关键词提及率</t>
+  </si>
+  <si>
+    <t>筛选有效回复（排除抓取失败、答非所问），统计明确 / 隐含提及关键词的回复占比，隐含提及需人工标注验证</t>
+  </si>
+  <si>
+    <t>核心基础指标，直接反映关键词在核心词关联场景下的曝光广度，判断品牌是否被大模型纳入相关话题讨论范围</t>
+  </si>
+  <si>
+    <t>关键词提及率 =（提及目标品牌的有效回复数 ÷ 总有效回复数）× 100%</t>
+  </si>
+  <si>
+    <t>核心词 “无糖可乐”，目标品牌 “百事可乐”，有效回复 18 个，14 个提及百事可乐，关键词提及率 = 14÷18×100%≈77.8%</t>
   </si>
   <si>
     <t>品牌信息准确性</t>
@@ -264,10 +285,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -282,6 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -431,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +482,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -637,7 +673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -646,17 +682,133 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,55 +930,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,97 +990,145 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1200,6 +1397,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1458,282 +1660,353 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17.6442307692308" customWidth="1"/>
+    <col min="2" max="2" width="36.8557692307692" customWidth="1"/>
+    <col min="3" max="3" width="36.8557692307692" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.1538461538462" customWidth="1"/>
+    <col min="5" max="6" width="55.9230769230769" customWidth="1"/>
+    <col min="7" max="7" width="91.3365384615385" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="34" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="17.75" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="303" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" ht="51" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" ht="269" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="3" ht="34" spans="1:7">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="F3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" ht="269" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="4" ht="51" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" ht="387" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    <row r="5" ht="51" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="F5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" ht="303" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="6" ht="51" spans="1:7">
+      <c r="A6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="F6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" ht="336" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    <row r="7" ht="51" spans="1:7">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="F7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" ht="409.5" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    <row r="8" ht="51" spans="1:7">
+      <c r="A8" s="16"/>
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="F8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" ht="320" spans="1:6">
-      <c r="A9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="9" ht="68" spans="1:7">
+      <c r="A9" s="16"/>
+      <c r="B9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="14" t="s">
         <v>48</v>
       </c>
+      <c r="G9" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="10" ht="286" spans="1:6">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    <row r="10" ht="51" spans="1:7">
+      <c r="A10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="F10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="11" ht="286" spans="1:6">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    <row r="11" ht="51" spans="1:7">
+      <c r="A11" s="17"/>
+      <c r="B11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="14" t="s">
         <v>58</v>
       </c>
+      <c r="F11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="12" ht="252" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    <row r="12" ht="51" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="9" t="s">
         <v>64</v>
       </c>
+      <c r="G12" s="10" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="13" ht="404" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    <row r="13" ht="51" spans="1:7">
+      <c r="A13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="C13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="14" t="s">
         <v>69</v>
       </c>
+      <c r="F13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="14" ht="320" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="3" t="s">
+    <row r="14" ht="51" spans="1:7">
+      <c r="A14" s="18"/>
+      <c r="B14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>74</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="1:7">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
